--- a/新建 Microsoft Office Excel 2007 工作表.xlsx
+++ b/新建 Microsoft Office Excel 2007 工作表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -46,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,13 +365,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -360,6 +396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>